--- a/Monster_datatable.xlsx
+++ b/Monster_datatable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM\Desktop\C#\TP_G5_251014\Team-Project-Text-RPG-group5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCAA8E7-EE97-40AC-9699-2ED8ACC808EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0722357F-EE0C-4911-920B-43179C4EA525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="14">
   <si>
     <t>슬라임</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>오크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evasion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -451,13 +463,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -476,16 +494,22 @@
         <f>5+B2*2</f>
         <v>7</v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">_xlfn.IFS(B2&lt;=5, B2*3, B2&lt;=10, 5+B2*2, TRUE, 25+B2)</f>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">_xlfn.IFS(B2&lt;=5, B2*3, B2&lt;=10, 5+B2*2, TRUE, 25+B2)</f>
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <f>B2*3</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -504,16 +528,22 @@
         <f t="shared" ref="E3:E31" si="2">5+B3*2</f>
         <v>9</v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">_xlfn.IFS(B3&lt;=5, B3*3, B3&lt;=10, 5+B3*2, TRUE, 25+B3)</f>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">_xlfn.IFS(B3&lt;=5, B3*3, B3&lt;=10, 5+B3*2, TRUE, 25+B3)</f>
         <v>6</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G31" si="3">B3*3</f>
+      <c r="I3">
+        <f>B3*3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -532,16 +562,22 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">_xlfn.IFS(B4&lt;=5, B4*3, B4&lt;=10, 5+B4*2, TRUE, 25+B4)</f>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">_xlfn.IFS(B4&lt;=5, B4*3, B4&lt;=10, 5+B4*2, TRUE, 25+B4)</f>
         <v>9</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
+      <c r="I4">
+        <f>B4*3</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -560,16 +596,22 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">_xlfn.IFS(B5&lt;=5, B5*3, B5&lt;=10, 5+B5*2, TRUE, 25+B5)</f>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(B5&lt;=5, B5*3, B5&lt;=10, 5+B5*2, TRUE, 25+B5)</f>
         <v>12</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
+      <c r="I5">
+        <f>B5*3</f>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -588,16 +630,22 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">_xlfn.IFS(B6&lt;=5, B6*3, B6&lt;=10, 5+B6*2, TRUE, 25+B6)</f>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(B6&lt;=5, B6*3, B6&lt;=10, 5+B6*2, TRUE, 25+B6)</f>
         <v>15</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
+      <c r="I6">
+        <f>B6*3</f>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -616,16 +664,22 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">_xlfn.IFS(B7&lt;=5, B7*3, B7&lt;=10, 5+B7*2, TRUE, 25+B7)</f>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(B7&lt;=5, B7*3, B7&lt;=10, 5+B7*2, TRUE, 25+B7)</f>
         <v>17</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
+      <c r="I7">
+        <f>B7*3</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -644,16 +698,22 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">_xlfn.IFS(B8&lt;=5, B8*3, B8&lt;=10, 5+B8*2, TRUE, 25+B8)</f>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">_xlfn.IFS(B8&lt;=5, B8*3, B8&lt;=10, 5+B8*2, TRUE, 25+B8)</f>
         <v>19</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
+      <c r="I8">
+        <f>B8*3</f>
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -672,16 +732,22 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">_xlfn.IFS(B9&lt;=5, B9*3, B9&lt;=10, 5+B9*2, TRUE, 25+B9)</f>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(B9&lt;=5, B9*3, B9&lt;=10, 5+B9*2, TRUE, 25+B9)</f>
         <v>21</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
+      <c r="I9">
+        <f>B9*3</f>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -700,16 +766,22 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">_xlfn.IFS(B10&lt;=5, B10*3, B10&lt;=10, 5+B10*2, TRUE, 25+B10)</f>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(B10&lt;=5, B10*3, B10&lt;=10, 5+B10*2, TRUE, 25+B10)</f>
         <v>23</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
+      <c r="I10">
+        <f>B10*3</f>
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -728,16 +800,22 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">_xlfn.IFS(B11&lt;=5, B11*3, B11&lt;=10, 5+B11*2, TRUE, 25+B11)</f>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(B11&lt;=5, B11*3, B11&lt;=10, 5+B11*2, TRUE, 25+B11)</f>
         <v>25</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
+      <c r="I11">
+        <f>B11*3</f>
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -756,16 +834,22 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">_xlfn.IFS(B12&lt;=5, B12*3, B12&lt;=10, 5+B12*2, TRUE, 25+B12)</f>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(B12&lt;=5, B12*3, B12&lt;=10, 5+B12*2, TRUE, 25+B12)</f>
         <v>36</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
+      <c r="I12">
+        <f>B12*3</f>
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -784,16 +868,22 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">_xlfn.IFS(B13&lt;=5, B13*3, B13&lt;=10, 5+B13*2, TRUE, 25+B13)</f>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(B13&lt;=5, B13*3, B13&lt;=10, 5+B13*2, TRUE, 25+B13)</f>
         <v>37</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
+      <c r="I13">
+        <f>B13*3</f>
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -812,16 +902,22 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">_xlfn.IFS(B14&lt;=5, B14*3, B14&lt;=10, 5+B14*2, TRUE, 25+B14)</f>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(B14&lt;=5, B14*3, B14&lt;=10, 5+B14*2, TRUE, 25+B14)</f>
         <v>38</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
+      <c r="I14">
+        <f>B14*3</f>
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -840,16 +936,22 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">_xlfn.IFS(B15&lt;=5, B15*3, B15&lt;=10, 5+B15*2, TRUE, 25+B15)</f>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(B15&lt;=5, B15*3, B15&lt;=10, 5+B15*2, TRUE, 25+B15)</f>
         <v>39</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
+      <c r="I15">
+        <f>B15*3</f>
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -868,16 +970,22 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">_xlfn.IFS(B16&lt;=5, B16*3, B16&lt;=10, 5+B16*2, TRUE, 25+B16)</f>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">_xlfn.IFS(B16&lt;=5, B16*3, B16&lt;=10, 5+B16*2, TRUE, 25+B16)</f>
         <v>40</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
+      <c r="I16">
+        <f>B16*3</f>
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -896,16 +1004,22 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">_xlfn.IFS(B17&lt;=5, B17*3, B17&lt;=10, 5+B17*2, TRUE, 25+B17)</f>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">_xlfn.IFS(B17&lt;=5, B17*3, B17&lt;=10, 5+B17*2, TRUE, 25+B17)</f>
         <v>41</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
+      <c r="I17">
+        <f>B17*3</f>
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -924,16 +1038,22 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">_xlfn.IFS(B18&lt;=5, B18*3, B18&lt;=10, 5+B18*2, TRUE, 25+B18)</f>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">_xlfn.IFS(B18&lt;=5, B18*3, B18&lt;=10, 5+B18*2, TRUE, 25+B18)</f>
         <v>42</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
+      <c r="I18">
+        <f>B18*3</f>
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -952,16 +1072,22 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">_xlfn.IFS(B19&lt;=5, B19*3, B19&lt;=10, 5+B19*2, TRUE, 25+B19)</f>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">_xlfn.IFS(B19&lt;=5, B19*3, B19&lt;=10, 5+B19*2, TRUE, 25+B19)</f>
         <v>43</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
+      <c r="I19">
+        <f>B19*3</f>
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -980,16 +1106,22 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">_xlfn.IFS(B20&lt;=5, B20*3, B20&lt;=10, 5+B20*2, TRUE, 25+B20)</f>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">_xlfn.IFS(B20&lt;=5, B20*3, B20&lt;=10, 5+B20*2, TRUE, 25+B20)</f>
         <v>44</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
+      <c r="I20">
+        <f>B20*3</f>
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1008,16 +1140,22 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">_xlfn.IFS(B21&lt;=5, B21*3, B21&lt;=10, 5+B21*2, TRUE, 25+B21)</f>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(B21&lt;=5, B21*3, B21&lt;=10, 5+B21*2, TRUE, 25+B21)</f>
         <v>45</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
+      <c r="I21">
+        <f>B21*3</f>
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1036,16 +1174,22 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">_xlfn.IFS(B22&lt;=5, B22*3, B22&lt;=10, 5+B22*2, TRUE, 25+B22)</f>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(B22&lt;=5, B22*3, B22&lt;=10, 5+B22*2, TRUE, 25+B22)</f>
         <v>46</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
+      <c r="I22">
+        <f>B22*3</f>
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1064,16 +1208,22 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">_xlfn.IFS(B23&lt;=5, B23*3, B23&lt;=10, 5+B23*2, TRUE, 25+B23)</f>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23" cm="1">
+        <f t="array" ref="H23">_xlfn.IFS(B23&lt;=5, B23*3, B23&lt;=10, 5+B23*2, TRUE, 25+B23)</f>
         <v>47</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
+      <c r="I23">
+        <f>B23*3</f>
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1092,16 +1242,22 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">_xlfn.IFS(B24&lt;=5, B24*3, B24&lt;=10, 5+B24*2, TRUE, 25+B24)</f>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24" cm="1">
+        <f t="array" ref="H24">_xlfn.IFS(B24&lt;=5, B24*3, B24&lt;=10, 5+B24*2, TRUE, 25+B24)</f>
         <v>48</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
+      <c r="I24">
+        <f>B24*3</f>
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1120,16 +1276,22 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">_xlfn.IFS(B25&lt;=5, B25*3, B25&lt;=10, 5+B25*2, TRUE, 25+B25)</f>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25" cm="1">
+        <f t="array" ref="H25">_xlfn.IFS(B25&lt;=5, B25*3, B25&lt;=10, 5+B25*2, TRUE, 25+B25)</f>
         <v>49</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
+      <c r="I25">
+        <f>B25*3</f>
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1148,16 +1310,22 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">_xlfn.IFS(B26&lt;=5, B26*3, B26&lt;=10, 5+B26*2, TRUE, 25+B26)</f>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26">_xlfn.IFS(B26&lt;=5, B26*3, B26&lt;=10, 5+B26*2, TRUE, 25+B26)</f>
         <v>50</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
+      <c r="I26">
+        <f>B26*3</f>
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1176,16 +1344,22 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">_xlfn.IFS(B27&lt;=5, B27*3, B27&lt;=10, 5+B27*2, TRUE, 25+B27)</f>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" ref="H27">_xlfn.IFS(B27&lt;=5, B27*3, B27&lt;=10, 5+B27*2, TRUE, 25+B27)</f>
         <v>51</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
+      <c r="I27">
+        <f>B27*3</f>
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1204,16 +1378,22 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">_xlfn.IFS(B28&lt;=5, B28*3, B28&lt;=10, 5+B28*2, TRUE, 25+B28)</f>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28" cm="1">
+        <f t="array" ref="H28">_xlfn.IFS(B28&lt;=5, B28*3, B28&lt;=10, 5+B28*2, TRUE, 25+B28)</f>
         <v>52</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
+      <c r="I28">
+        <f>B28*3</f>
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1232,16 +1412,22 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">_xlfn.IFS(B29&lt;=5, B29*3, B29&lt;=10, 5+B29*2, TRUE, 25+B29)</f>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29" cm="1">
+        <f t="array" ref="H29">_xlfn.IFS(B29&lt;=5, B29*3, B29&lt;=10, 5+B29*2, TRUE, 25+B29)</f>
         <v>53</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
+      <c r="I29">
+        <f>B29*3</f>
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1260,16 +1446,22 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">_xlfn.IFS(B30&lt;=5, B30*3, B30&lt;=10, 5+B30*2, TRUE, 25+B30)</f>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">_xlfn.IFS(B30&lt;=5, B30*3, B30&lt;=10, 5+B30*2, TRUE, 25+B30)</f>
         <v>54</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
+      <c r="I30">
+        <f>B30*3</f>
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1288,16 +1480,22 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">_xlfn.IFS(B31&lt;=5, B31*3, B31&lt;=10, 5+B31*2, TRUE, 25+B31)</f>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.1</v>
+      </c>
+      <c r="H31" cm="1">
+        <f t="array" ref="H31">_xlfn.IFS(B31&lt;=5, B31*3, B31&lt;=10, 5+B31*2, TRUE, 25+B31)</f>
         <v>55</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
+      <c r="I31">
+        <f>B31*3</f>
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1317,15 +1515,21 @@
         <v>11</v>
       </c>
       <c r="F33">
+        <v>0.05</v>
+      </c>
+      <c r="G33">
+        <v>0.2</v>
+      </c>
+      <c r="H33">
         <f>B33*2+D33</f>
         <v>4</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <f>10+D33</f>
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C62" si="4">10+B34*3</f>
+        <f t="shared" ref="C34:C62" si="3">10+B34*3</f>
         <v>16</v>
       </c>
       <c r="D34" cm="1">
@@ -1341,19 +1545,25 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E36" si="5">10+B34</f>
+        <f t="shared" ref="E34:E36" si="4">10+B34</f>
         <v>12</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F36" si="6">B34*2+D34</f>
+        <v>0.05</v>
+      </c>
+      <c r="G34">
+        <v>0.2</v>
+      </c>
+      <c r="H34">
+        <f>B34*2+D34</f>
         <v>8</v>
       </c>
-      <c r="G34">
-        <f t="shared" ref="G34" si="7">10+D34</f>
+      <c r="I34">
+        <f>10+D34</f>
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1361,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D35" cm="1">
@@ -1369,19 +1579,25 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="G35">
+        <v>0.2</v>
+      </c>
+      <c r="H35">
+        <f>B35*2+D35</f>
         <v>12</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <f>10+D35</f>
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1389,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D36" cm="1">
@@ -1397,19 +1613,25 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="G36">
+        <v>0.2</v>
+      </c>
+      <c r="H36">
+        <f>B36*2+D36</f>
         <v>16</v>
       </c>
-      <c r="G36">
-        <f t="shared" ref="G36:G52" si="8">10+D36</f>
+      <c r="I36">
+        <f>10+D36</f>
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D37" cm="1">
@@ -1425,19 +1647,25 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:E52" si="9">10+B37</f>
+        <f t="shared" ref="E37:E52" si="5">10+B37</f>
         <v>15</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F52" si="10">B37*2+D37</f>
+        <v>0.05</v>
+      </c>
+      <c r="G37">
+        <v>0.2</v>
+      </c>
+      <c r="H37">
+        <f>B37*2+D37</f>
         <v>20</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="8"/>
+      <c r="I37">
+        <f>10+D37</f>
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D38" cm="1">
@@ -1453,19 +1681,25 @@
         <v>32</v>
       </c>
       <c r="E38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="F38">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G38">
+        <v>0.2</v>
+      </c>
+      <c r="H38">
+        <f>B38*2+D38</f>
         <v>44</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="8"/>
+      <c r="I38">
+        <f>10+D38</f>
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1473,7 +1707,7 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D39" cm="1">
@@ -1481,19 +1715,25 @@
         <v>34</v>
       </c>
       <c r="E39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="F39">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G39">
+        <v>0.2</v>
+      </c>
+      <c r="H39">
+        <f>B39*2+D39</f>
         <v>48</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="8"/>
+      <c r="I39">
+        <f>10+D39</f>
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="D40" cm="1">
@@ -1509,19 +1749,25 @@
         <v>36</v>
       </c>
       <c r="E40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="F40">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G40">
+        <v>0.2</v>
+      </c>
+      <c r="H40">
+        <f>B40*2+D40</f>
         <v>52</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="8"/>
+      <c r="I40">
+        <f>10+D40</f>
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="D41" cm="1">
@@ -1537,19 +1783,25 @@
         <v>38</v>
       </c>
       <c r="E41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="F41">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G41">
+        <v>0.2</v>
+      </c>
+      <c r="H41">
+        <f>B41*2+D41</f>
         <v>56</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="8"/>
+      <c r="I41">
+        <f>10+D41</f>
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="D42" cm="1">
@@ -1565,19 +1817,25 @@
         <v>40</v>
       </c>
       <c r="E42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="F42">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G42">
+        <v>0.2</v>
+      </c>
+      <c r="H42">
+        <f>B42*2+D42</f>
         <v>60</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="8"/>
+      <c r="I42">
+        <f>10+D42</f>
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="D43" cm="1">
@@ -1593,19 +1851,25 @@
         <v>93</v>
       </c>
       <c r="E43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="F43">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G43">
+        <v>0.2</v>
+      </c>
+      <c r="H43">
+        <f>B43*2+D43</f>
         <v>115</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="8"/>
+      <c r="I43">
+        <f>10+D43</f>
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="D44" cm="1">
@@ -1621,19 +1885,25 @@
         <v>96</v>
       </c>
       <c r="E44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="F44">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G44">
+        <v>0.2</v>
+      </c>
+      <c r="H44">
+        <f>B44*2+D44</f>
         <v>120</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="8"/>
+      <c r="I44">
+        <f>10+D44</f>
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1641,7 +1911,7 @@
         <v>13</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="D45" cm="1">
@@ -1649,19 +1919,25 @@
         <v>99</v>
       </c>
       <c r="E45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="F45">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G45">
+        <v>0.2</v>
+      </c>
+      <c r="H45">
+        <f>B45*2+D45</f>
         <v>125</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="8"/>
+      <c r="I45">
+        <f>10+D45</f>
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1945,7 @@
         <v>14</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="D46" cm="1">
@@ -1677,19 +1953,25 @@
         <v>102</v>
       </c>
       <c r="E46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="F46">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G46">
+        <v>0.2</v>
+      </c>
+      <c r="H46">
+        <f>B46*2+D46</f>
         <v>130</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="8"/>
+      <c r="I46">
+        <f>10+D46</f>
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="D47" cm="1">
@@ -1705,19 +1987,25 @@
         <v>105</v>
       </c>
       <c r="E47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="F47">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G47">
+        <v>0.2</v>
+      </c>
+      <c r="H47">
+        <f>B47*2+D47</f>
         <v>135</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="8"/>
+      <c r="I47">
+        <f>10+D47</f>
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1725,7 +2013,7 @@
         <v>16</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="D48" cm="1">
@@ -1733,19 +2021,25 @@
         <v>108</v>
       </c>
       <c r="E48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="F48">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G48">
+        <v>0.2</v>
+      </c>
+      <c r="H48">
+        <f>B48*2+D48</f>
         <v>140</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="8"/>
+      <c r="I48">
+        <f>10+D48</f>
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1753,7 +2047,7 @@
         <v>17</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="D49" cm="1">
@@ -1761,19 +2055,25 @@
         <v>111</v>
       </c>
       <c r="E49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="F49">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G49">
+        <v>0.2</v>
+      </c>
+      <c r="H49">
+        <f>B49*2+D49</f>
         <v>145</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="8"/>
+      <c r="I49">
+        <f>10+D49</f>
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1781,7 +2081,7 @@
         <v>18</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="D50" cm="1">
@@ -1789,19 +2089,25 @@
         <v>114</v>
       </c>
       <c r="E50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="F50">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G50">
+        <v>0.2</v>
+      </c>
+      <c r="H50">
+        <f>B50*2+D50</f>
         <v>150</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="8"/>
+      <c r="I50">
+        <f>10+D50</f>
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="D51" cm="1">
@@ -1817,19 +2123,25 @@
         <v>117</v>
       </c>
       <c r="E51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="F51">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G51">
+        <v>0.2</v>
+      </c>
+      <c r="H51">
+        <f>B51*2+D51</f>
         <v>155</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="8"/>
+      <c r="I51">
+        <f>10+D51</f>
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +2149,7 @@
         <v>20</v>
       </c>
       <c r="C52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="D52" cm="1">
@@ -1845,19 +2157,25 @@
         <v>120</v>
       </c>
       <c r="E52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="F52">
-        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="G52">
+        <v>0.2</v>
+      </c>
+      <c r="H52">
+        <f>B52*2+D52</f>
         <v>160</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="8"/>
+      <c r="I52">
+        <f>10+D52</f>
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1877,15 +2195,21 @@
         <v>31</v>
       </c>
       <c r="F53">
+        <v>0.05</v>
+      </c>
+      <c r="G53">
+        <v>0.2</v>
+      </c>
+      <c r="H53">
         <f>B53*2+D53</f>
         <v>246</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <f>10+D53</f>
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +2217,7 @@
         <v>22</v>
       </c>
       <c r="C54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="D54" cm="1">
@@ -1901,19 +2225,25 @@
         <v>208</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:E62" si="11">10+B54</f>
+        <f t="shared" ref="E54:E62" si="6">10+B54</f>
         <v>32</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54:F62" si="12">B54*2+D54</f>
+        <v>0.05</v>
+      </c>
+      <c r="G54">
+        <v>0.2</v>
+      </c>
+      <c r="H54">
+        <f>B54*2+D54</f>
         <v>252</v>
       </c>
-      <c r="G54">
-        <f t="shared" ref="G54" si="13">10+D54</f>
+      <c r="I54">
+        <f>10+D54</f>
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1921,7 +2251,7 @@
         <v>23</v>
       </c>
       <c r="C55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="D55" cm="1">
@@ -1929,19 +2259,25 @@
         <v>212</v>
       </c>
       <c r="E55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="F55">
-        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="G55">
+        <v>0.2</v>
+      </c>
+      <c r="H55">
+        <f>B55*2+D55</f>
         <v>258</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <f>10+D55</f>
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +2285,7 @@
         <v>24</v>
       </c>
       <c r="C56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="D56" cm="1">
@@ -1957,19 +2293,25 @@
         <v>216</v>
       </c>
       <c r="E56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="F56">
-        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="G56">
+        <v>0.2</v>
+      </c>
+      <c r="H56">
+        <f>B56*2+D56</f>
         <v>264</v>
       </c>
-      <c r="G56">
-        <f t="shared" ref="G56:G62" si="14">10+D56</f>
+      <c r="I56">
+        <f>10+D56</f>
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1977,7 +2319,7 @@
         <v>25</v>
       </c>
       <c r="C57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="D57" cm="1">
@@ -1985,19 +2327,25 @@
         <v>220</v>
       </c>
       <c r="E57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="F57">
-        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="G57">
+        <v>0.2</v>
+      </c>
+      <c r="H57">
+        <f>B57*2+D57</f>
         <v>270</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="14"/>
+      <c r="I57">
+        <f>10+D57</f>
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2005,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="C58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="D58" cm="1">
@@ -2013,19 +2361,25 @@
         <v>224</v>
       </c>
       <c r="E58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="F58">
-        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="G58">
+        <v>0.2</v>
+      </c>
+      <c r="H58">
+        <f>B58*2+D58</f>
         <v>276</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="14"/>
+      <c r="I58">
+        <f>10+D58</f>
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2033,7 +2387,7 @@
         <v>27</v>
       </c>
       <c r="C59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="D59" cm="1">
@@ -2041,19 +2395,25 @@
         <v>228</v>
       </c>
       <c r="E59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="F59">
-        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="G59">
+        <v>0.2</v>
+      </c>
+      <c r="H59">
+        <f>B59*2+D59</f>
         <v>282</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="14"/>
+      <c r="I59">
+        <f>10+D59</f>
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2061,7 +2421,7 @@
         <v>28</v>
       </c>
       <c r="C60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="D60" cm="1">
@@ -2069,19 +2429,25 @@
         <v>232</v>
       </c>
       <c r="E60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="F60">
-        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="G60">
+        <v>0.2</v>
+      </c>
+      <c r="H60">
+        <f>B60*2+D60</f>
         <v>288</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="14"/>
+      <c r="I60">
+        <f>10+D60</f>
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +2455,7 @@
         <v>29</v>
       </c>
       <c r="C61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="D61" cm="1">
@@ -2097,19 +2463,25 @@
         <v>236</v>
       </c>
       <c r="E61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="F61">
-        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="G61">
+        <v>0.2</v>
+      </c>
+      <c r="H61">
+        <f>B61*2+D61</f>
         <v>294</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="14"/>
+      <c r="I61">
+        <f>10+D61</f>
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2117,7 +2489,7 @@
         <v>30</v>
       </c>
       <c r="C62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="D62" cm="1">
@@ -2125,19 +2497,25 @@
         <v>240</v>
       </c>
       <c r="E62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="F62">
-        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="G62">
+        <v>0.2</v>
+      </c>
+      <c r="H62">
+        <f>B62*2+D62</f>
         <v>300</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="14"/>
+      <c r="I62">
+        <f>10+D62</f>
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2157,15 +2535,22 @@
         <v>5</v>
       </c>
       <c r="F64">
+        <f>0.1+(D64*0.001)</f>
+        <v>0.111</v>
+      </c>
+      <c r="G64">
+        <v>0.2</v>
+      </c>
+      <c r="H64">
         <f>B64*2+D64</f>
         <v>13</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <f>15+D64</f>
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C93" si="15">15+B65*3</f>
+        <f t="shared" ref="C65:C93" si="7">15+B65*3</f>
         <v>21</v>
       </c>
       <c r="D65" cm="1">
@@ -2181,19 +2566,26 @@
         <v>14</v>
       </c>
       <c r="E65">
-        <f t="shared" ref="E65:E93" si="16">4+B65</f>
+        <f t="shared" ref="E65:E93" si="8">4+B65</f>
         <v>6</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:F93" si="17">B65*2+D65</f>
+        <f t="shared" ref="F65:F93" si="9">0.1+(D65*0.001)</f>
+        <v>0.114</v>
+      </c>
+      <c r="G65">
+        <v>0.2</v>
+      </c>
+      <c r="H65">
+        <f>B65*2+D65</f>
         <v>18</v>
       </c>
-      <c r="G65">
-        <f t="shared" ref="G65:G93" si="18">15+D65</f>
+      <c r="I65">
+        <f>15+D65</f>
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2201,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="D66" cm="1">
@@ -2209,19 +2601,26 @@
         <v>17</v>
       </c>
       <c r="E66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="F66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.2</v>
+      </c>
+      <c r="H66">
+        <f>B66*2+D66</f>
         <v>23</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="18"/>
+      <c r="I66">
+        <f>15+D66</f>
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2229,7 +2628,7 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="D67" cm="1">
@@ -2237,19 +2636,26 @@
         <v>20</v>
       </c>
       <c r="E67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="F67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.2</v>
+      </c>
+      <c r="H67">
+        <f>B67*2+D67</f>
         <v>28</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="18"/>
+      <c r="I67">
+        <f>15+D67</f>
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2257,7 +2663,7 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="D68" cm="1">
@@ -2265,19 +2671,26 @@
         <v>23</v>
       </c>
       <c r="E68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="F68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.123</v>
+      </c>
+      <c r="G68">
+        <v>0.2</v>
+      </c>
+      <c r="H68">
+        <f>B68*2+D68</f>
         <v>33</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="18"/>
+      <c r="I68">
+        <f>15+D68</f>
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2285,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="C69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="D69" cm="1">
@@ -2293,19 +2706,26 @@
         <v>62</v>
       </c>
       <c r="E69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="F69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.2</v>
+      </c>
+      <c r="H69">
+        <f>B69*2+D69</f>
         <v>74</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="18"/>
+      <c r="I69">
+        <f>15+D69</f>
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2313,7 +2733,7 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="D70" cm="1">
@@ -2321,19 +2741,26 @@
         <v>66</v>
       </c>
       <c r="E70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="F70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.2</v>
+      </c>
+      <c r="H70">
+        <f>B70*2+D70</f>
         <v>80</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="18"/>
+      <c r="I70">
+        <f>15+D70</f>
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2768,7 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="D71" cm="1">
@@ -2349,19 +2776,26 @@
         <v>70</v>
       </c>
       <c r="E71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="F71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.17</v>
+      </c>
+      <c r="G71">
+        <v>0.2</v>
+      </c>
+      <c r="H71">
+        <f>B71*2+D71</f>
         <v>86</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="18"/>
+      <c r="I71">
+        <f>15+D71</f>
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2369,7 +2803,7 @@
         <v>9</v>
       </c>
       <c r="C72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="D72" cm="1">
@@ -2377,19 +2811,26 @@
         <v>74</v>
       </c>
       <c r="E72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="F72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G72">
+        <v>0.2</v>
+      </c>
+      <c r="H72">
+        <f>B72*2+D72</f>
         <v>92</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="18"/>
+      <c r="I72">
+        <f>15+D72</f>
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="D73" cm="1">
@@ -2405,19 +2846,26 @@
         <v>78</v>
       </c>
       <c r="E73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="F73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G73">
+        <v>0.2</v>
+      </c>
+      <c r="H73">
+        <f>B73*2+D73</f>
         <v>98</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="18"/>
+      <c r="I73">
+        <f>15+D73</f>
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2425,7 +2873,7 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="D74" cm="1">
@@ -2433,19 +2881,26 @@
         <v>123</v>
       </c>
       <c r="E74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="F74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.223</v>
+      </c>
+      <c r="G74">
+        <v>0.2</v>
+      </c>
+      <c r="H74">
+        <f>B74*2+D74</f>
         <v>145</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="18"/>
+      <c r="I74">
+        <f>15+D74</f>
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2453,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="D75" cm="1">
@@ -2461,19 +2916,26 @@
         <v>128</v>
       </c>
       <c r="E75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="F75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="G75">
+        <v>0.2</v>
+      </c>
+      <c r="H75">
+        <f>B75*2+D75</f>
         <v>152</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="18"/>
+      <c r="I75">
+        <f>15+D75</f>
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2481,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="C76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D76" cm="1">
@@ -2489,19 +2951,26 @@
         <v>133</v>
       </c>
       <c r="E76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="F76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G76">
+        <v>0.2</v>
+      </c>
+      <c r="H76">
+        <f>B76*2+D76</f>
         <v>159</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="18"/>
+      <c r="I76">
+        <f>15+D76</f>
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2509,7 +2978,7 @@
         <v>14</v>
       </c>
       <c r="C77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D77" cm="1">
@@ -2517,19 +2986,26 @@
         <v>138</v>
       </c>
       <c r="E77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="F77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.23800000000000002</v>
+      </c>
+      <c r="G77">
+        <v>0.2</v>
+      </c>
+      <c r="H77">
+        <f>B77*2+D77</f>
         <v>166</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="18"/>
+      <c r="I77">
+        <f>15+D77</f>
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2537,7 +3013,7 @@
         <v>15</v>
       </c>
       <c r="C78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D78" cm="1">
@@ -2545,19 +3021,26 @@
         <v>143</v>
       </c>
       <c r="E78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="F78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.24300000000000002</v>
+      </c>
+      <c r="G78">
+        <v>0.2</v>
+      </c>
+      <c r="H78">
+        <f>B78*2+D78</f>
         <v>173</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="18"/>
+      <c r="I78">
+        <f>15+D78</f>
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2565,7 +3048,7 @@
         <v>16</v>
       </c>
       <c r="C79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="D79" cm="1">
@@ -2573,19 +3056,26 @@
         <v>148</v>
       </c>
       <c r="E79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.248</v>
+      </c>
+      <c r="G79">
+        <v>0.2</v>
+      </c>
+      <c r="H79">
+        <f>B79*2+D79</f>
         <v>180</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="18"/>
+      <c r="I79">
+        <f>15+D79</f>
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +3083,7 @@
         <v>17</v>
       </c>
       <c r="C80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D80" cm="1">
@@ -2601,19 +3091,26 @@
         <v>153</v>
       </c>
       <c r="E80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="F80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.253</v>
+      </c>
+      <c r="G80">
+        <v>0.2</v>
+      </c>
+      <c r="H80">
+        <f>B80*2+D80</f>
         <v>187</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="18"/>
+      <c r="I80">
+        <f>15+D80</f>
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2621,7 +3118,7 @@
         <v>18</v>
       </c>
       <c r="C81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="D81" cm="1">
@@ -2629,19 +3126,26 @@
         <v>158</v>
       </c>
       <c r="E81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="F81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G81">
+        <v>0.2</v>
+      </c>
+      <c r="H81">
+        <f>B81*2+D81</f>
         <v>194</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="18"/>
+      <c r="I81">
+        <f>15+D81</f>
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2649,7 +3153,7 @@
         <v>19</v>
       </c>
       <c r="C82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="D82" cm="1">
@@ -2657,19 +3161,26 @@
         <v>163</v>
       </c>
       <c r="E82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="F82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.2</v>
+      </c>
+      <c r="H82">
+        <f>B82*2+D82</f>
         <v>201</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="18"/>
+      <c r="I82">
+        <f>15+D82</f>
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2677,7 +3188,7 @@
         <v>20</v>
       </c>
       <c r="C83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="D83" cm="1">
@@ -2685,19 +3196,26 @@
         <v>168</v>
       </c>
       <c r="E83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G83">
+        <v>0.2</v>
+      </c>
+      <c r="H83">
+        <f>B83*2+D83</f>
         <v>208</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="18"/>
+      <c r="I83">
+        <f>15+D83</f>
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2705,7 +3223,7 @@
         <v>21</v>
       </c>
       <c r="C84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="D84" cm="1">
@@ -2713,19 +3231,26 @@
         <v>254</v>
       </c>
       <c r="E84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="F84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G84">
+        <v>0.2</v>
+      </c>
+      <c r="H84">
+        <f>B84*2+D84</f>
         <v>296</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="18"/>
+      <c r="I84">
+        <f>15+D84</f>
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2733,7 +3258,7 @@
         <v>22</v>
       </c>
       <c r="C85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="D85" cm="1">
@@ -2741,19 +3266,26 @@
         <v>260</v>
       </c>
       <c r="E85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="F85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.36</v>
+      </c>
+      <c r="G85">
+        <v>0.2</v>
+      </c>
+      <c r="H85">
+        <f>B85*2+D85</f>
         <v>304</v>
       </c>
-      <c r="G85">
-        <f t="shared" si="18"/>
+      <c r="I85">
+        <f>15+D85</f>
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2761,7 +3293,7 @@
         <v>23</v>
       </c>
       <c r="C86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="D86" cm="1">
@@ -2769,19 +3301,26 @@
         <v>266</v>
       </c>
       <c r="E86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="F86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G86">
+        <v>0.2</v>
+      </c>
+      <c r="H86">
+        <f>B86*2+D86</f>
         <v>312</v>
       </c>
-      <c r="G86">
-        <f t="shared" si="18"/>
+      <c r="I86">
+        <f>15+D86</f>
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2789,7 +3328,7 @@
         <v>24</v>
       </c>
       <c r="C87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="D87" cm="1">
@@ -2797,19 +3336,26 @@
         <v>272</v>
       </c>
       <c r="E87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="F87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.372</v>
+      </c>
+      <c r="G87">
+        <v>0.2</v>
+      </c>
+      <c r="H87">
+        <f>B87*2+D87</f>
         <v>320</v>
       </c>
-      <c r="G87">
-        <f t="shared" si="18"/>
+      <c r="I87">
+        <f>15+D87</f>
         <v>287</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2817,7 +3363,7 @@
         <v>25</v>
       </c>
       <c r="C88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="D88" cm="1">
@@ -2825,19 +3371,26 @@
         <v>278</v>
       </c>
       <c r="E88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="F88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.378</v>
+      </c>
+      <c r="G88">
+        <v>0.2</v>
+      </c>
+      <c r="H88">
+        <f>B88*2+D88</f>
         <v>328</v>
       </c>
-      <c r="G88">
-        <f t="shared" si="18"/>
+      <c r="I88">
+        <f>15+D88</f>
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2845,7 +3398,7 @@
         <v>26</v>
       </c>
       <c r="C89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="D89" cm="1">
@@ -2853,19 +3406,26 @@
         <v>284</v>
       </c>
       <c r="E89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="F89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G89">
+        <v>0.2</v>
+      </c>
+      <c r="H89">
+        <f>B89*2+D89</f>
         <v>336</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="18"/>
+      <c r="I89">
+        <f>15+D89</f>
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +3433,7 @@
         <v>27</v>
       </c>
       <c r="C90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="D90" cm="1">
@@ -2881,19 +3441,26 @@
         <v>290</v>
       </c>
       <c r="E90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="F90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.39</v>
+      </c>
+      <c r="G90">
+        <v>0.2</v>
+      </c>
+      <c r="H90">
+        <f>B90*2+D90</f>
         <v>344</v>
       </c>
-      <c r="G90">
-        <f t="shared" si="18"/>
+      <c r="I90">
+        <f>15+D90</f>
         <v>305</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2901,7 +3468,7 @@
         <v>28</v>
       </c>
       <c r="C91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="D91" cm="1">
@@ -2909,19 +3476,26 @@
         <v>296</v>
       </c>
       <c r="E91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="F91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G91">
+        <v>0.2</v>
+      </c>
+      <c r="H91">
+        <f>B91*2+D91</f>
         <v>352</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="18"/>
+      <c r="I91">
+        <f>15+D91</f>
         <v>311</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -2929,7 +3503,7 @@
         <v>29</v>
       </c>
       <c r="C92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="D92" cm="1">
@@ -2937,19 +3511,26 @@
         <v>302</v>
       </c>
       <c r="E92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="F92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G92">
+        <v>0.2</v>
+      </c>
+      <c r="H92">
+        <f>B92*2+D92</f>
         <v>360</v>
       </c>
-      <c r="G92">
-        <f t="shared" si="18"/>
+      <c r="I92">
+        <f>15+D92</f>
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2957,7 +3538,7 @@
         <v>30</v>
       </c>
       <c r="C93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="D93" cm="1">
@@ -2965,19 +3546,26 @@
         <v>308</v>
       </c>
       <c r="E93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="F93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
+        <v>0.40800000000000003</v>
+      </c>
+      <c r="G93">
+        <v>0.2</v>
+      </c>
+      <c r="H93">
+        <f>B93*2+D93</f>
         <v>368</v>
       </c>
-      <c r="G93">
-        <f t="shared" si="18"/>
+      <c r="I93">
+        <f>15+D93</f>
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -2997,15 +3585,21 @@
         <v>51</v>
       </c>
       <c r="F95">
+        <v>0.08</v>
+      </c>
+      <c r="G95">
+        <v>0.05</v>
+      </c>
+      <c r="H95">
         <f>150+B95*4</f>
         <v>154</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <f>150+B95*2</f>
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3013,27 +3607,33 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:C124" si="19">250+INT(B96*1.5)</f>
+        <f t="shared" ref="C96:C124" si="10">250+INT(B96*1.5)</f>
         <v>253</v>
       </c>
       <c r="D96">
-        <f t="shared" ref="D96:D124" si="20">70+B96</f>
+        <f t="shared" ref="D96:D124" si="11">70+B96</f>
         <v>72</v>
       </c>
       <c r="E96">
-        <f t="shared" ref="E96:E124" si="21">50+INT(B96*1.1)</f>
+        <f t="shared" ref="E96:E124" si="12">50+INT(B96*1.1)</f>
         <v>52</v>
       </c>
       <c r="F96">
-        <f t="shared" ref="F96:F124" si="22">150+B96*4</f>
+        <v>0.08</v>
+      </c>
+      <c r="G96">
+        <v>0.05</v>
+      </c>
+      <c r="H96">
+        <f>150+B96*4</f>
         <v>158</v>
       </c>
-      <c r="G96">
-        <f t="shared" ref="G96:G124" si="23">150+B96*2</f>
+      <c r="I96">
+        <f>150+B96*2</f>
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3041,27 +3641,33 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>254</v>
       </c>
       <c r="D97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="E97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="F97">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G97">
+        <v>0.05</v>
+      </c>
+      <c r="H97">
+        <f>150+B97*4</f>
         <v>162</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="23"/>
+      <c r="I97">
+        <f>150+B97*2</f>
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3069,27 +3675,33 @@
         <v>4</v>
       </c>
       <c r="C98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="D98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="E98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="F98">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G98">
+        <v>0.05</v>
+      </c>
+      <c r="H98">
+        <f>150+B98*4</f>
         <v>166</v>
       </c>
-      <c r="G98">
-        <f t="shared" si="23"/>
+      <c r="I98">
+        <f>150+B98*2</f>
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3097,27 +3709,33 @@
         <v>5</v>
       </c>
       <c r="C99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>257</v>
       </c>
       <c r="D99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="E99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="F99">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G99">
+        <v>0.05</v>
+      </c>
+      <c r="H99">
+        <f>150+B99*4</f>
         <v>170</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="23"/>
+      <c r="I99">
+        <f>150+B99*2</f>
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3125,27 +3743,33 @@
         <v>6</v>
       </c>
       <c r="C100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>259</v>
       </c>
       <c r="D100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="E100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="F100">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G100">
+        <v>0.05</v>
+      </c>
+      <c r="H100">
+        <f>150+B100*4</f>
         <v>174</v>
       </c>
-      <c r="G100">
-        <f t="shared" si="23"/>
+      <c r="I100">
+        <f>150+B100*2</f>
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3153,27 +3777,33 @@
         <v>7</v>
       </c>
       <c r="C101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="D101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="E101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="F101">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G101">
+        <v>0.05</v>
+      </c>
+      <c r="H101">
+        <f>150+B101*4</f>
         <v>178</v>
       </c>
-      <c r="G101">
-        <f t="shared" si="23"/>
+      <c r="I101">
+        <f>150+B101*2</f>
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3181,27 +3811,33 @@
         <v>8</v>
       </c>
       <c r="C102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>262</v>
       </c>
       <c r="D102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="E102">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="F102">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G102">
+        <v>0.05</v>
+      </c>
+      <c r="H102">
+        <f>150+B102*4</f>
         <v>182</v>
       </c>
-      <c r="G102">
-        <f t="shared" si="23"/>
+      <c r="I102">
+        <f>150+B102*2</f>
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3209,27 +3845,33 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>263</v>
       </c>
       <c r="D103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="E103">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="F103">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G103">
+        <v>0.05</v>
+      </c>
+      <c r="H103">
+        <f>150+B103*4</f>
         <v>186</v>
       </c>
-      <c r="G103">
-        <f t="shared" si="23"/>
+      <c r="I103">
+        <f>150+B103*2</f>
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -3237,27 +3879,33 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>265</v>
       </c>
       <c r="D104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="E104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="F104">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G104">
+        <v>0.05</v>
+      </c>
+      <c r="H104">
+        <f>150+B104*4</f>
         <v>190</v>
       </c>
-      <c r="G104">
-        <f t="shared" si="23"/>
+      <c r="I104">
+        <f>150+B104*2</f>
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3265,27 +3913,33 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>266</v>
       </c>
       <c r="D105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="E105">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="F105">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G105">
+        <v>0.05</v>
+      </c>
+      <c r="H105">
+        <f>150+B105*4</f>
         <v>194</v>
       </c>
-      <c r="G105">
-        <f t="shared" si="23"/>
+      <c r="I105">
+        <f>150+B105*2</f>
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -3293,27 +3947,33 @@
         <v>12</v>
       </c>
       <c r="C106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>268</v>
       </c>
       <c r="D106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="E106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="F106">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G106">
+        <v>0.05</v>
+      </c>
+      <c r="H106">
+        <f>150+B106*4</f>
         <v>198</v>
       </c>
-      <c r="G106">
-        <f t="shared" si="23"/>
+      <c r="I106">
+        <f>150+B106*2</f>
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -3321,27 +3981,33 @@
         <v>13</v>
       </c>
       <c r="C107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>269</v>
       </c>
       <c r="D107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="E107">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="F107">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G107">
+        <v>0.05</v>
+      </c>
+      <c r="H107">
+        <f>150+B107*4</f>
         <v>202</v>
       </c>
-      <c r="G107">
-        <f t="shared" si="23"/>
+      <c r="I107">
+        <f>150+B107*2</f>
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3349,27 +4015,33 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>271</v>
       </c>
       <c r="D108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="E108">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="F108">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G108">
+        <v>0.05</v>
+      </c>
+      <c r="H108">
+        <f>150+B108*4</f>
         <v>206</v>
       </c>
-      <c r="G108">
-        <f t="shared" si="23"/>
+      <c r="I108">
+        <f>150+B108*2</f>
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3377,27 +4049,33 @@
         <v>15</v>
       </c>
       <c r="C109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>272</v>
       </c>
       <c r="D109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="E109">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="F109">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G109">
+        <v>0.05</v>
+      </c>
+      <c r="H109">
+        <f>150+B109*4</f>
         <v>210</v>
       </c>
-      <c r="G109">
-        <f t="shared" si="23"/>
+      <c r="I109">
+        <f>150+B109*2</f>
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -3405,27 +4083,33 @@
         <v>16</v>
       </c>
       <c r="C110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>274</v>
       </c>
       <c r="D110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="E110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="F110">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G110">
+        <v>0.05</v>
+      </c>
+      <c r="H110">
+        <f>150+B110*4</f>
         <v>214</v>
       </c>
-      <c r="G110">
-        <f t="shared" si="23"/>
+      <c r="I110">
+        <f>150+B110*2</f>
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -3433,27 +4117,33 @@
         <v>17</v>
       </c>
       <c r="C111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>275</v>
       </c>
       <c r="D111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="E111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="F111">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G111">
+        <v>0.05</v>
+      </c>
+      <c r="H111">
+        <f>150+B111*4</f>
         <v>218</v>
       </c>
-      <c r="G111">
-        <f t="shared" si="23"/>
+      <c r="I111">
+        <f>150+B111*2</f>
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -3461,27 +4151,33 @@
         <v>18</v>
       </c>
       <c r="C112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>277</v>
       </c>
       <c r="D112">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="E112">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="F112">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G112">
+        <v>0.05</v>
+      </c>
+      <c r="H112">
+        <f>150+B112*4</f>
         <v>222</v>
       </c>
-      <c r="G112">
-        <f t="shared" si="23"/>
+      <c r="I112">
+        <f>150+B112*2</f>
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -3489,27 +4185,33 @@
         <v>19</v>
       </c>
       <c r="C113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>278</v>
       </c>
       <c r="D113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="E113">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="F113">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G113">
+        <v>0.05</v>
+      </c>
+      <c r="H113">
+        <f>150+B113*4</f>
         <v>226</v>
       </c>
-      <c r="G113">
-        <f t="shared" si="23"/>
+      <c r="I113">
+        <f>150+B113*2</f>
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -3517,27 +4219,33 @@
         <v>20</v>
       </c>
       <c r="C114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>280</v>
       </c>
       <c r="D114">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="E114">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="F114">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G114">
+        <v>0.05</v>
+      </c>
+      <c r="H114">
+        <f>150+B114*4</f>
         <v>230</v>
       </c>
-      <c r="G114">
-        <f t="shared" si="23"/>
+      <c r="I114">
+        <f>150+B114*2</f>
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -3545,27 +4253,33 @@
         <v>21</v>
       </c>
       <c r="C115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>281</v>
       </c>
       <c r="D115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="E115">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="F115">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G115">
+        <v>0.05</v>
+      </c>
+      <c r="H115">
+        <f>150+B115*4</f>
         <v>234</v>
       </c>
-      <c r="G115">
-        <f t="shared" si="23"/>
+      <c r="I115">
+        <f>150+B115*2</f>
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -3573,27 +4287,33 @@
         <v>22</v>
       </c>
       <c r="C116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>283</v>
       </c>
       <c r="D116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="E116">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="F116">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G116">
+        <v>0.05</v>
+      </c>
+      <c r="H116">
+        <f>150+B116*4</f>
         <v>238</v>
       </c>
-      <c r="G116">
-        <f t="shared" si="23"/>
+      <c r="I116">
+        <f>150+B116*2</f>
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -3601,27 +4321,33 @@
         <v>23</v>
       </c>
       <c r="C117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>284</v>
       </c>
       <c r="D117">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="E117">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="F117">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G117">
+        <v>0.05</v>
+      </c>
+      <c r="H117">
+        <f>150+B117*4</f>
         <v>242</v>
       </c>
-      <c r="G117">
-        <f t="shared" si="23"/>
+      <c r="I117">
+        <f>150+B117*2</f>
         <v>196</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -3629,27 +4355,33 @@
         <v>24</v>
       </c>
       <c r="C118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>286</v>
       </c>
       <c r="D118">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="E118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
       <c r="F118">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G118">
+        <v>0.05</v>
+      </c>
+      <c r="H118">
+        <f>150+B118*4</f>
         <v>246</v>
       </c>
-      <c r="G118">
-        <f t="shared" si="23"/>
+      <c r="I118">
+        <f>150+B118*2</f>
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -3657,27 +4389,33 @@
         <v>25</v>
       </c>
       <c r="C119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>287</v>
       </c>
       <c r="D119">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="E119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="F119">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G119">
+        <v>0.05</v>
+      </c>
+      <c r="H119">
+        <f>150+B119*4</f>
         <v>250</v>
       </c>
-      <c r="G119">
-        <f t="shared" si="23"/>
+      <c r="I119">
+        <f>150+B119*2</f>
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -3685,27 +4423,33 @@
         <v>26</v>
       </c>
       <c r="C120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="D120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="E120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="F120">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G120">
+        <v>0.05</v>
+      </c>
+      <c r="H120">
+        <f>150+B120*4</f>
         <v>254</v>
       </c>
-      <c r="G120">
-        <f t="shared" si="23"/>
+      <c r="I120">
+        <f>150+B120*2</f>
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -3713,27 +4457,33 @@
         <v>27</v>
       </c>
       <c r="C121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="D121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="E121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="F121">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G121">
+        <v>0.05</v>
+      </c>
+      <c r="H121">
+        <f>150+B121*4</f>
         <v>258</v>
       </c>
-      <c r="G121">
-        <f t="shared" si="23"/>
+      <c r="I121">
+        <f>150+B121*2</f>
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -3741,27 +4491,33 @@
         <v>28</v>
       </c>
       <c r="C122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="D122">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="E122">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="F122">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G122">
+        <v>0.05</v>
+      </c>
+      <c r="H122">
+        <f>150+B122*4</f>
         <v>262</v>
       </c>
-      <c r="G122">
-        <f t="shared" si="23"/>
+      <c r="I122">
+        <f>150+B122*2</f>
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -3769,27 +4525,33 @@
         <v>29</v>
       </c>
       <c r="C123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>293</v>
       </c>
       <c r="D123">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="E123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="F123">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G123">
+        <v>0.05</v>
+      </c>
+      <c r="H123">
+        <f>150+B123*4</f>
         <v>266</v>
       </c>
-      <c r="G123">
-        <f t="shared" si="23"/>
+      <c r="I123">
+        <f>150+B123*2</f>
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -3797,24 +4559,933 @@
         <v>30</v>
       </c>
       <c r="C124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>295</v>
       </c>
       <c r="D124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="E124">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="F124">
-        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="G124">
+        <v>0.05</v>
+      </c>
+      <c r="H124">
+        <f>150+B124*4</f>
         <v>270</v>
       </c>
-      <c r="G124">
-        <f t="shared" si="23"/>
+      <c r="I124">
+        <f>150+B124*2</f>
         <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <f>100+B126*20</f>
+        <v>120</v>
+      </c>
+      <c r="D126">
+        <v>30</v>
+      </c>
+      <c r="E126">
+        <f>100+B126*20</f>
+        <v>120</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f>10+B126</f>
+        <v>11</v>
+      </c>
+      <c r="I126">
+        <f>45+B126*6</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ref="C127:C155" si="13">100+B127*20</f>
+        <v>140</v>
+      </c>
+      <c r="D127">
+        <v>31</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ref="E127:E155" si="14">100+B127*20</f>
+        <v>140</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" ref="H127:H155" si="15">10+B127</f>
+        <v>12</v>
+      </c>
+      <c r="I127">
+        <f t="shared" ref="I127:I155" si="16">45+B127*6</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="D128">
+        <v>32</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="16"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="D129">
+        <v>33</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="D130">
+        <v>34</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="13"/>
+        <v>220</v>
+      </c>
+      <c r="D131">
+        <v>35</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="16"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="D132">
+        <v>36</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="16"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="13"/>
+        <v>260</v>
+      </c>
+      <c r="D133">
+        <v>37</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="14"/>
+        <v>260</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="16"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="13"/>
+        <v>280</v>
+      </c>
+      <c r="D134">
+        <v>38</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="14"/>
+        <v>280</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="D135">
+        <v>39</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="16"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="13"/>
+        <v>320</v>
+      </c>
+      <c r="D136">
+        <v>40</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="14"/>
+        <v>320</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="16"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>12</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="13"/>
+        <v>340</v>
+      </c>
+      <c r="D137">
+        <v>41</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="14"/>
+        <v>340</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="16"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="13"/>
+        <v>360</v>
+      </c>
+      <c r="D138">
+        <v>42</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="14"/>
+        <v>360</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="16"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="13"/>
+        <v>380</v>
+      </c>
+      <c r="D139">
+        <v>43</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="14"/>
+        <v>380</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="16"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
+      <c r="D140">
+        <v>44</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="16"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="13"/>
+        <v>420</v>
+      </c>
+      <c r="D141">
+        <v>45</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="14"/>
+        <v>420</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="16"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>17</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="13"/>
+        <v>440</v>
+      </c>
+      <c r="D142">
+        <v>46</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="14"/>
+        <v>440</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="16"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>18</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="13"/>
+        <v>460</v>
+      </c>
+      <c r="D143">
+        <v>47</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="14"/>
+        <v>460</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="16"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>19</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="13"/>
+        <v>480</v>
+      </c>
+      <c r="D144">
+        <v>48</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="14"/>
+        <v>480</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="16"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>20</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="13"/>
+        <v>500</v>
+      </c>
+      <c r="D145">
+        <v>49</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="16"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>21</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="13"/>
+        <v>520</v>
+      </c>
+      <c r="D146">
+        <v>50</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="14"/>
+        <v>520</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="16"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>22</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="13"/>
+        <v>540</v>
+      </c>
+      <c r="D147">
+        <v>51</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="14"/>
+        <v>540</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="16"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>23</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="13"/>
+        <v>560</v>
+      </c>
+      <c r="D148">
+        <v>52</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="14"/>
+        <v>560</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="16"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>24</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="13"/>
+        <v>580</v>
+      </c>
+      <c r="D149">
+        <v>53</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="14"/>
+        <v>580</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="16"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>25</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="13"/>
+        <v>600</v>
+      </c>
+      <c r="D150">
+        <v>54</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="14"/>
+        <v>600</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="16"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>26</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="13"/>
+        <v>620</v>
+      </c>
+      <c r="D151">
+        <v>55</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="14"/>
+        <v>620</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="16"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>27</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="13"/>
+        <v>640</v>
+      </c>
+      <c r="D152">
+        <v>56</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="14"/>
+        <v>640</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="16"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>28</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="13"/>
+        <v>660</v>
+      </c>
+      <c r="D153">
+        <v>57</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="14"/>
+        <v>660</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="16"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>29</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="13"/>
+        <v>680</v>
+      </c>
+      <c r="D154">
+        <v>58</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="14"/>
+        <v>680</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="16"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>30</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="13"/>
+        <v>700</v>
+      </c>
+      <c r="D155">
+        <v>59</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="14"/>
+        <v>700</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="16"/>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Monster_datatable.xlsx
+++ b/Monster_datatable.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM\Desktop\C#\TP_G5_251014\Team-Project-Text-RPG-group5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0722357F-EE0C-4911-920B-43179C4EA525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C91E32-5CB2-4F01-8B2A-CDAB824C8162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="14">
   <si>
     <t>슬라임</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -152,12 +155,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -173,6 +296,1779 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="이준혁" refreshedDate="45945.410275115741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="153" xr:uid="{281F1AA4-5061-45F1-BF20-779D4D9F18C4}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:I155" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="슬라임" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="슬라임"/>
+        <m/>
+        <s v="고블린"/>
+        <s v="홉고블린"/>
+        <s v="오크"/>
+        <s v="골렘"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="1" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
+    </cacheField>
+    <cacheField name="20" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="13" maxValue="700"/>
+    </cacheField>
+    <cacheField name="3" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="308"/>
+    </cacheField>
+    <cacheField name="7" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="700"/>
+    </cacheField>
+    <cacheField name="0" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.40800000000000003"/>
+    </cacheField>
+    <cacheField name="0.1" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.2"/>
+    </cacheField>
+    <cacheField name="32" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="368"/>
+    </cacheField>
+    <cacheField name="33" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="6" maxValue="323"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="153">
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="6"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="30"/>
+    <n v="5"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="9"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="35"/>
+    <n v="6"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="12"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="40"/>
+    <n v="7"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="45"/>
+    <n v="8"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="17"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="50"/>
+    <n v="9"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="19"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="55"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="21"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="60"/>
+    <n v="11"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="23"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="65"/>
+    <n v="12"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="25"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="70"/>
+    <n v="13"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="36"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="75"/>
+    <n v="14"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="37"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="80"/>
+    <n v="15"/>
+    <n v="31"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="38"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="85"/>
+    <n v="16"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="39"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="90"/>
+    <n v="17"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="40"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="95"/>
+    <n v="18"/>
+    <n v="37"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="41"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="100"/>
+    <n v="19"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="42"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="18"/>
+    <n v="105"/>
+    <n v="20"/>
+    <n v="41"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="43"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="110"/>
+    <n v="21"/>
+    <n v="43"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="44"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="115"/>
+    <n v="22"/>
+    <n v="45"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="45"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="21"/>
+    <n v="120"/>
+    <n v="23"/>
+    <n v="47"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="46"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="22"/>
+    <n v="125"/>
+    <n v="24"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="47"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="23"/>
+    <n v="130"/>
+    <n v="25"/>
+    <n v="51"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="48"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="135"/>
+    <n v="26"/>
+    <n v="53"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="49"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="140"/>
+    <n v="27"/>
+    <n v="55"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="50"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="26"/>
+    <n v="145"/>
+    <n v="28"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="51"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="27"/>
+    <n v="150"/>
+    <n v="29"/>
+    <n v="59"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="52"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28"/>
+    <n v="155"/>
+    <n v="30"/>
+    <n v="61"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="53"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="160"/>
+    <n v="31"/>
+    <n v="63"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="54"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="165"/>
+    <n v="32"/>
+    <n v="65"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="55"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="4"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="8"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="19"/>
+    <n v="6"/>
+    <n v="13"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="12"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="22"/>
+    <n v="8"/>
+    <n v="14"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="16"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="25"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="28"/>
+    <n v="32"/>
+    <n v="16"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="44"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="31"/>
+    <n v="34"/>
+    <n v="17"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="48"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="34"/>
+    <n v="36"/>
+    <n v="18"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="52"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="37"/>
+    <n v="38"/>
+    <n v="19"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="56"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="20"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="60"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="11"/>
+    <n v="43"/>
+    <n v="93"/>
+    <n v="21"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="115"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="46"/>
+    <n v="96"/>
+    <n v="22"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="120"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="13"/>
+    <n v="49"/>
+    <n v="99"/>
+    <n v="23"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="125"/>
+    <n v="109"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="14"/>
+    <n v="52"/>
+    <n v="102"/>
+    <n v="24"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="130"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="55"/>
+    <n v="105"/>
+    <n v="25"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="135"/>
+    <n v="115"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="16"/>
+    <n v="58"/>
+    <n v="108"/>
+    <n v="26"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="140"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="61"/>
+    <n v="111"/>
+    <n v="27"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="145"/>
+    <n v="121"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="18"/>
+    <n v="64"/>
+    <n v="114"/>
+    <n v="28"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="150"/>
+    <n v="124"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="19"/>
+    <n v="67"/>
+    <n v="117"/>
+    <n v="29"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="155"/>
+    <n v="127"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20"/>
+    <n v="70"/>
+    <n v="120"/>
+    <n v="30"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="160"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="21"/>
+    <n v="73"/>
+    <n v="204"/>
+    <n v="31"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="246"/>
+    <n v="214"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="22"/>
+    <n v="76"/>
+    <n v="208"/>
+    <n v="32"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="252"/>
+    <n v="218"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="23"/>
+    <n v="79"/>
+    <n v="212"/>
+    <n v="33"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="258"/>
+    <n v="222"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="24"/>
+    <n v="82"/>
+    <n v="216"/>
+    <n v="34"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="264"/>
+    <n v="226"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="25"/>
+    <n v="85"/>
+    <n v="220"/>
+    <n v="35"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="270"/>
+    <n v="230"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="26"/>
+    <n v="88"/>
+    <n v="224"/>
+    <n v="36"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="276"/>
+    <n v="234"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="27"/>
+    <n v="91"/>
+    <n v="228"/>
+    <n v="37"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="282"/>
+    <n v="238"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="28"/>
+    <n v="94"/>
+    <n v="232"/>
+    <n v="38"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="288"/>
+    <n v="242"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="29"/>
+    <n v="97"/>
+    <n v="236"/>
+    <n v="39"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="294"/>
+    <n v="246"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="100"/>
+    <n v="240"/>
+    <n v="40"/>
+    <n v="0.05"/>
+    <n v="0.2"/>
+    <n v="300"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="18"/>
+    <n v="11"/>
+    <n v="5"/>
+    <n v="0.111"/>
+    <n v="0.2"/>
+    <n v="13"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="21"/>
+    <n v="14"/>
+    <n v="6"/>
+    <n v="0.114"/>
+    <n v="0.2"/>
+    <n v="18"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="24"/>
+    <n v="17"/>
+    <n v="7"/>
+    <n v="0.11700000000000001"/>
+    <n v="0.2"/>
+    <n v="23"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="27"/>
+    <n v="20"/>
+    <n v="8"/>
+    <n v="0.12000000000000001"/>
+    <n v="0.2"/>
+    <n v="28"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="30"/>
+    <n v="23"/>
+    <n v="9"/>
+    <n v="0.123"/>
+    <n v="0.2"/>
+    <n v="33"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="33"/>
+    <n v="62"/>
+    <n v="10"/>
+    <n v="0.16200000000000001"/>
+    <n v="0.2"/>
+    <n v="74"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="36"/>
+    <n v="66"/>
+    <n v="11"/>
+    <n v="0.16600000000000001"/>
+    <n v="0.2"/>
+    <n v="80"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="39"/>
+    <n v="70"/>
+    <n v="12"/>
+    <n v="0.17"/>
+    <n v="0.2"/>
+    <n v="86"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="9"/>
+    <n v="42"/>
+    <n v="74"/>
+    <n v="13"/>
+    <n v="0.17399999999999999"/>
+    <n v="0.2"/>
+    <n v="92"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="45"/>
+    <n v="78"/>
+    <n v="14"/>
+    <n v="0.17799999999999999"/>
+    <n v="0.2"/>
+    <n v="98"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="11"/>
+    <n v="48"/>
+    <n v="123"/>
+    <n v="15"/>
+    <n v="0.223"/>
+    <n v="0.2"/>
+    <n v="145"/>
+    <n v="138"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="51"/>
+    <n v="128"/>
+    <n v="16"/>
+    <n v="0.22800000000000001"/>
+    <n v="0.2"/>
+    <n v="152"/>
+    <n v="143"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="13"/>
+    <n v="54"/>
+    <n v="133"/>
+    <n v="17"/>
+    <n v="0.23300000000000001"/>
+    <n v="0.2"/>
+    <n v="159"/>
+    <n v="148"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="14"/>
+    <n v="57"/>
+    <n v="138"/>
+    <n v="18"/>
+    <n v="0.23800000000000002"/>
+    <n v="0.2"/>
+    <n v="166"/>
+    <n v="153"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="60"/>
+    <n v="143"/>
+    <n v="19"/>
+    <n v="0.24300000000000002"/>
+    <n v="0.2"/>
+    <n v="173"/>
+    <n v="158"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="63"/>
+    <n v="148"/>
+    <n v="20"/>
+    <n v="0.248"/>
+    <n v="0.2"/>
+    <n v="180"/>
+    <n v="163"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="66"/>
+    <n v="153"/>
+    <n v="21"/>
+    <n v="0.253"/>
+    <n v="0.2"/>
+    <n v="187"/>
+    <n v="168"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="18"/>
+    <n v="69"/>
+    <n v="158"/>
+    <n v="22"/>
+    <n v="0.25800000000000001"/>
+    <n v="0.2"/>
+    <n v="194"/>
+    <n v="173"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="19"/>
+    <n v="72"/>
+    <n v="163"/>
+    <n v="23"/>
+    <n v="0.26300000000000001"/>
+    <n v="0.2"/>
+    <n v="201"/>
+    <n v="178"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="20"/>
+    <n v="75"/>
+    <n v="168"/>
+    <n v="24"/>
+    <n v="0.26800000000000002"/>
+    <n v="0.2"/>
+    <n v="208"/>
+    <n v="183"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="21"/>
+    <n v="78"/>
+    <n v="254"/>
+    <n v="25"/>
+    <n v="0.35399999999999998"/>
+    <n v="0.2"/>
+    <n v="296"/>
+    <n v="269"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="22"/>
+    <n v="81"/>
+    <n v="260"/>
+    <n v="26"/>
+    <n v="0.36"/>
+    <n v="0.2"/>
+    <n v="304"/>
+    <n v="275"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="23"/>
+    <n v="84"/>
+    <n v="266"/>
+    <n v="27"/>
+    <n v="0.36599999999999999"/>
+    <n v="0.2"/>
+    <n v="312"/>
+    <n v="281"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="24"/>
+    <n v="87"/>
+    <n v="272"/>
+    <n v="28"/>
+    <n v="0.372"/>
+    <n v="0.2"/>
+    <n v="320"/>
+    <n v="287"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="25"/>
+    <n v="90"/>
+    <n v="278"/>
+    <n v="29"/>
+    <n v="0.378"/>
+    <n v="0.2"/>
+    <n v="328"/>
+    <n v="293"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="26"/>
+    <n v="93"/>
+    <n v="284"/>
+    <n v="30"/>
+    <n v="0.38400000000000001"/>
+    <n v="0.2"/>
+    <n v="336"/>
+    <n v="299"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="27"/>
+    <n v="96"/>
+    <n v="290"/>
+    <n v="31"/>
+    <n v="0.39"/>
+    <n v="0.2"/>
+    <n v="344"/>
+    <n v="305"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="28"/>
+    <n v="99"/>
+    <n v="296"/>
+    <n v="32"/>
+    <n v="0.39600000000000002"/>
+    <n v="0.2"/>
+    <n v="352"/>
+    <n v="311"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="29"/>
+    <n v="102"/>
+    <n v="302"/>
+    <n v="33"/>
+    <n v="0.40200000000000002"/>
+    <n v="0.2"/>
+    <n v="360"/>
+    <n v="317"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="30"/>
+    <n v="105"/>
+    <n v="308"/>
+    <n v="34"/>
+    <n v="0.40800000000000003"/>
+    <n v="0.2"/>
+    <n v="368"/>
+    <n v="323"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="251"/>
+    <n v="71"/>
+    <n v="51"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="154"/>
+    <n v="152"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="253"/>
+    <n v="72"/>
+    <n v="52"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="158"/>
+    <n v="154"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="254"/>
+    <n v="73"/>
+    <n v="53"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="162"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="256"/>
+    <n v="74"/>
+    <n v="54"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="166"/>
+    <n v="158"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="257"/>
+    <n v="75"/>
+    <n v="55"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="170"/>
+    <n v="160"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="259"/>
+    <n v="76"/>
+    <n v="56"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="174"/>
+    <n v="162"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="260"/>
+    <n v="77"/>
+    <n v="57"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="178"/>
+    <n v="164"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <n v="262"/>
+    <n v="78"/>
+    <n v="58"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="182"/>
+    <n v="166"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="9"/>
+    <n v="263"/>
+    <n v="79"/>
+    <n v="59"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="186"/>
+    <n v="168"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="265"/>
+    <n v="80"/>
+    <n v="61"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="190"/>
+    <n v="170"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="11"/>
+    <n v="266"/>
+    <n v="81"/>
+    <n v="62"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="194"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="12"/>
+    <n v="268"/>
+    <n v="82"/>
+    <n v="63"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="198"/>
+    <n v="174"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="13"/>
+    <n v="269"/>
+    <n v="83"/>
+    <n v="64"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="202"/>
+    <n v="176"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="14"/>
+    <n v="271"/>
+    <n v="84"/>
+    <n v="65"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="206"/>
+    <n v="178"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="15"/>
+    <n v="272"/>
+    <n v="85"/>
+    <n v="66"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="210"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="16"/>
+    <n v="274"/>
+    <n v="86"/>
+    <n v="67"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="214"/>
+    <n v="182"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="17"/>
+    <n v="275"/>
+    <n v="87"/>
+    <n v="68"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="218"/>
+    <n v="184"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="18"/>
+    <n v="277"/>
+    <n v="88"/>
+    <n v="69"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="222"/>
+    <n v="186"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="19"/>
+    <n v="278"/>
+    <n v="89"/>
+    <n v="70"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="226"/>
+    <n v="188"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="20"/>
+    <n v="280"/>
+    <n v="90"/>
+    <n v="72"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="230"/>
+    <n v="190"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="21"/>
+    <n v="281"/>
+    <n v="91"/>
+    <n v="73"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="234"/>
+    <n v="192"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="22"/>
+    <n v="283"/>
+    <n v="92"/>
+    <n v="74"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="238"/>
+    <n v="194"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="23"/>
+    <n v="284"/>
+    <n v="93"/>
+    <n v="75"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="242"/>
+    <n v="196"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="24"/>
+    <n v="286"/>
+    <n v="94"/>
+    <n v="76"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="246"/>
+    <n v="198"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="25"/>
+    <n v="287"/>
+    <n v="95"/>
+    <n v="77"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="250"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="26"/>
+    <n v="289"/>
+    <n v="96"/>
+    <n v="78"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="254"/>
+    <n v="202"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="27"/>
+    <n v="290"/>
+    <n v="97"/>
+    <n v="79"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="258"/>
+    <n v="204"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="28"/>
+    <n v="292"/>
+    <n v="98"/>
+    <n v="80"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="262"/>
+    <n v="206"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="29"/>
+    <n v="293"/>
+    <n v="99"/>
+    <n v="81"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="266"/>
+    <n v="208"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="30"/>
+    <n v="295"/>
+    <n v="100"/>
+    <n v="83"/>
+    <n v="0.08"/>
+    <n v="0.05"/>
+    <n v="270"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="120"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="140"/>
+    <n v="31"/>
+    <n v="140"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="160"/>
+    <n v="32"/>
+    <n v="160"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="4"/>
+    <n v="180"/>
+    <n v="33"/>
+    <n v="180"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="5"/>
+    <n v="200"/>
+    <n v="34"/>
+    <n v="200"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6"/>
+    <n v="220"/>
+    <n v="35"/>
+    <n v="220"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="7"/>
+    <n v="240"/>
+    <n v="36"/>
+    <n v="240"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8"/>
+    <n v="260"/>
+    <n v="37"/>
+    <n v="260"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="9"/>
+    <n v="280"/>
+    <n v="38"/>
+    <n v="280"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="300"/>
+    <n v="39"/>
+    <n v="300"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="11"/>
+    <n v="320"/>
+    <n v="40"/>
+    <n v="320"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="111"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="340"/>
+    <n v="41"/>
+    <n v="340"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="117"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="13"/>
+    <n v="360"/>
+    <n v="42"/>
+    <n v="360"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="23"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="14"/>
+    <n v="380"/>
+    <n v="43"/>
+    <n v="380"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="24"/>
+    <n v="129"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="15"/>
+    <n v="400"/>
+    <n v="44"/>
+    <n v="400"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="135"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="16"/>
+    <n v="420"/>
+    <n v="45"/>
+    <n v="420"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="141"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="17"/>
+    <n v="440"/>
+    <n v="46"/>
+    <n v="440"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="27"/>
+    <n v="147"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="18"/>
+    <n v="460"/>
+    <n v="47"/>
+    <n v="460"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28"/>
+    <n v="153"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="19"/>
+    <n v="480"/>
+    <n v="48"/>
+    <n v="480"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="29"/>
+    <n v="159"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20"/>
+    <n v="500"/>
+    <n v="49"/>
+    <n v="500"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="165"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="21"/>
+    <n v="520"/>
+    <n v="50"/>
+    <n v="520"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="31"/>
+    <n v="171"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="22"/>
+    <n v="540"/>
+    <n v="51"/>
+    <n v="540"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="32"/>
+    <n v="177"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="23"/>
+    <n v="560"/>
+    <n v="52"/>
+    <n v="560"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="183"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="24"/>
+    <n v="580"/>
+    <n v="53"/>
+    <n v="580"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="34"/>
+    <n v="189"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="25"/>
+    <n v="600"/>
+    <n v="54"/>
+    <n v="600"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="26"/>
+    <n v="620"/>
+    <n v="55"/>
+    <n v="620"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="201"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="27"/>
+    <n v="640"/>
+    <n v="56"/>
+    <n v="640"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="37"/>
+    <n v="207"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="28"/>
+    <n v="660"/>
+    <n v="57"/>
+    <n v="660"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="38"/>
+    <n v="213"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="29"/>
+    <n v="680"/>
+    <n v="58"/>
+    <n v="680"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="39"/>
+    <n v="219"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="30"/>
+    <n v="700"/>
+    <n v="59"/>
+    <n v="700"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="225"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66D26359-2F2F-45E8-A2B7-F5F2A8057AE4}" name="피벗 테이블4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K1:M18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,15 +2334,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -474,8 +2373,11 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -508,8 +2410,11 @@
         <f>B2*3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -542,8 +2447,11 @@
         <f>B3*3</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -576,8 +2484,11 @@
         <f>B4*3</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -610,8 +2521,11 @@
         <f>B5*3</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -644,8 +2558,11 @@
         <f>B6*3</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -678,8 +2595,11 @@
         <f>B7*3</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -712,8 +2632,11 @@
         <f>B8*3</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -746,8 +2669,11 @@
         <f>B9*3</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -780,8 +2706,11 @@
         <f>B10*3</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -814,8 +2743,11 @@
         <f>B11*3</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -848,8 +2780,11 @@
         <f>B12*3</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -882,8 +2817,11 @@
         <f>B13*3</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -916,8 +2854,11 @@
         <f>B14*3</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -950,8 +2891,11 @@
         <f>B15*3</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -984,8 +2928,11 @@
         <f>B16*3</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1018,8 +2965,11 @@
         <f>B17*3</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1052,8 +3002,11 @@
         <f>B18*3</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +3040,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +3074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +3108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +3142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +3176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +3210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +3244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +3278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +3312,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +3346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +3380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +3414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4619,6 +6572,9 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
       <c r="B127">
         <v>2</v>
       </c>
@@ -4649,6 +6605,9 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
       <c r="B128">
         <v>3</v>
       </c>
@@ -4678,7 +6637,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
       <c r="B129">
         <v>4</v>
       </c>
@@ -4708,7 +6670,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
       <c r="B130">
         <v>5</v>
       </c>
@@ -4738,7 +6703,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
       <c r="B131">
         <v>6</v>
       </c>
@@ -4768,7 +6736,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
       <c r="B132">
         <v>7</v>
       </c>
@@ -4798,7 +6769,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
       <c r="B133">
         <v>8</v>
       </c>
@@ -4828,7 +6802,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
       <c r="B134">
         <v>9</v>
       </c>
@@ -4858,7 +6835,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
       <c r="B135">
         <v>10</v>
       </c>
@@ -4888,7 +6868,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
       <c r="B136">
         <v>11</v>
       </c>
@@ -4918,7 +6901,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
       <c r="B137">
         <v>12</v>
       </c>
@@ -4948,7 +6934,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
       <c r="B138">
         <v>13</v>
       </c>
@@ -4978,7 +6967,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
       <c r="B139">
         <v>14</v>
       </c>
@@ -5008,7 +7000,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
       <c r="B140">
         <v>15</v>
       </c>
@@ -5038,7 +7033,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
       <c r="B141">
         <v>16</v>
       </c>
@@ -5068,7 +7066,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
       <c r="B142">
         <v>17</v>
       </c>
@@ -5098,7 +7099,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
       <c r="B143">
         <v>18</v>
       </c>
@@ -5128,7 +7132,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
       <c r="B144">
         <v>19</v>
       </c>
@@ -5158,7 +7165,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
       <c r="B145">
         <v>20</v>
       </c>
@@ -5188,7 +7198,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
       <c r="B146">
         <v>21</v>
       </c>
@@ -5218,7 +7231,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
       <c r="B147">
         <v>22</v>
       </c>
@@ -5248,7 +7264,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
       <c r="B148">
         <v>23</v>
       </c>
@@ -5278,7 +7297,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
       <c r="B149">
         <v>24</v>
       </c>
@@ -5308,7 +7330,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
       <c r="B150">
         <v>25</v>
       </c>
@@ -5338,7 +7363,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
       <c r="B151">
         <v>26</v>
       </c>
@@ -5368,7 +7396,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
       <c r="B152">
         <v>27</v>
       </c>
@@ -5398,7 +7429,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
       <c r="B153">
         <v>28</v>
       </c>
@@ -5428,7 +7462,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
       <c r="B154">
         <v>29</v>
       </c>
@@ -5458,7 +7495,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
       <c r="B155">
         <v>30</v>
       </c>
@@ -5491,6 +7531,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>